--- a/Ross_Conrad/ConradSARE_Survivorship.xlsx
+++ b/Ross_Conrad/ConradSARE_Survivorship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="680" windowWidth="25600" windowHeight="16780" tabRatio="500"/>
+    <workbookView xWindow="5720" yWindow="0" windowWidth="25600" windowHeight="16780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,21 +201,9 @@
     <t>TFQ-15</t>
   </si>
   <si>
-    <t>Treatment</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Survivorship</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -244,6 +232,18 @@
   </si>
   <si>
     <t>Spring</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>survivorship</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -642,26 +642,26 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -683,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>65</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
       </c>
       <c r="E3">
         <v>2016</v>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
       </c>
       <c r="E4">
         <v>2016</v>
@@ -717,13 +717,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
       </c>
       <c r="E5">
         <v>2016</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -762,13 +762,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
       </c>
       <c r="E8">
         <v>2016</v>
@@ -779,13 +779,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>65</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
       </c>
       <c r="E9">
         <v>2016</v>
@@ -796,13 +796,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
       </c>
       <c r="E10">
         <v>2016</v>
@@ -813,13 +813,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>65</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
       </c>
       <c r="E11">
         <v>2016</v>
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -858,13 +858,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
       </c>
       <c r="E14">
         <v>2016</v>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1057,13 +1057,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>66</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
       </c>
       <c r="E28">
         <v>2016</v>
@@ -1074,7 +1074,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>66</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
       </c>
       <c r="E30">
         <v>2016</v>
@@ -1105,7 +1105,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1147,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>2016</v>
@@ -1164,13 +1164,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
         <v>67</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
       </c>
       <c r="E35">
         <v>2016</v>
@@ -1181,7 +1181,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1195,13 +1195,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E37">
         <v>2016</v>
@@ -1212,7 +1212,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1226,13 +1226,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <v>2016</v>
@@ -1243,13 +1243,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>2016</v>
@@ -1260,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1288,13 +1288,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>2016</v>
@@ -1305,13 +1305,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>2016</v>
@@ -1322,7 +1322,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1350,13 +1350,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>2016</v>
@@ -1367,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1437,13 +1437,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E53">
         <v>2016</v>
@@ -1454,13 +1454,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E54">
         <v>2016</v>
@@ -1471,13 +1471,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E55">
         <v>2016</v>
@@ -1488,13 +1488,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E56">
         <v>2016</v>
@@ -1505,7 +1505,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1533,13 +1533,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>2017</v>
@@ -1550,13 +1550,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E60">
         <v>2017</v>
@@ -1567,13 +1567,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <v>2017</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E62">
         <v>2017</v>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E63">
         <v>2017</v>
@@ -1612,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E64">
         <v>2017</v>
@@ -1623,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E65">
         <v>2017</v>
@@ -1634,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1648,13 +1648,13 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E67">
         <v>2017</v>
@@ -1665,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E68">
         <v>2017</v>
@@ -1676,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E69">
         <v>2017</v>
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E70">
         <v>2017</v>
@@ -1698,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E71">
         <v>2017</v>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E74">
         <v>2017</v>
@@ -1748,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E77">
         <v>2017</v>
@@ -1793,7 +1793,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E78">
         <v>2017</v>
@@ -1804,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E79">
         <v>2017</v>
@@ -1815,7 +1815,7 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E80">
         <v>2017</v>
@@ -1826,7 +1826,7 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E81">
         <v>2017</v>
@@ -1837,13 +1837,13 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
         <v>66</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>70</v>
       </c>
       <c r="E82">
         <v>2017</v>
@@ -1854,7 +1854,7 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E83">
         <v>2017</v>
@@ -1865,13 +1865,13 @@
         <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E84">
         <v>2017</v>
@@ -1882,7 +1882,7 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E85">
         <v>2017</v>
@@ -1893,13 +1893,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
         <v>66</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>70</v>
       </c>
       <c r="E86">
         <v>2017</v>
@@ -1910,13 +1910,13 @@
         <v>25</v>
       </c>
       <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
         <v>66</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>70</v>
       </c>
       <c r="E87">
         <v>2017</v>
@@ -1927,13 +1927,13 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E88">
         <v>2017</v>
@@ -1944,13 +1944,13 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E89">
         <v>2017</v>
@@ -1961,7 +1961,7 @@
         <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E90">
         <v>2017</v>
@@ -1972,7 +1972,7 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E91">
         <v>2017</v>
@@ -1983,7 +1983,7 @@
         <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2011,7 +2011,7 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E94">
         <v>2017</v>
@@ -2022,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E95">
         <v>2017</v>
@@ -2033,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E97">
         <v>2017</v>
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E99">
         <v>2017</v>
@@ -2083,7 +2083,7 @@
         <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E100">
         <v>2017</v>
@@ -2094,7 +2094,7 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E103">
         <v>2017</v>
@@ -2133,7 +2133,7 @@
         <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E104">
         <v>2017</v>
@@ -2144,7 +2144,7 @@
         <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E107">
         <v>2017</v>
@@ -2183,7 +2183,7 @@
         <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E108">
         <v>2017</v>
@@ -2194,7 +2194,7 @@
         <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E109">
         <v>2017</v>
@@ -2205,7 +2205,7 @@
         <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E110">
         <v>2017</v>
@@ -2216,13 +2216,13 @@
         <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E111">
         <v>2017</v>
@@ -2233,7 +2233,7 @@
         <v>50</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E112">
         <v>2017</v>
@@ -2244,7 +2244,7 @@
         <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E113">
         <v>2017</v>
@@ -2255,7 +2255,7 @@
         <v>52</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E114">
         <v>2017</v>
@@ -2266,7 +2266,7 @@
         <v>53</v>
       </c>
       <c r="B115" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E115">
         <v>2017</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E116">
         <v>2017</v>
@@ -2288,7 +2288,7 @@
         <v>55</v>
       </c>
       <c r="B117" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E117">
         <v>2017</v>
@@ -2299,7 +2299,7 @@
         <v>56</v>
       </c>
       <c r="B118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E118">
         <v>2017</v>
@@ -2310,7 +2310,7 @@
         <v>57</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E119">
         <v>2017</v>
@@ -2321,7 +2321,7 @@
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E120">
         <v>2017</v>
@@ -2332,7 +2332,7 @@
         <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E121">
         <v>2017</v>
